--- a/updated_user1.xlsx
+++ b/updated_user1.xlsx
@@ -720,16 +720,16 @@
         <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cultural heritage, infrastructure</t>
+          <t>cultural heritage</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5186,10 +5186,10 @@
         <v>3.3</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -26456,10 +26456,10 @@
         <v>3.3</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -26579,10 +26579,10 @@
         <v>3.3</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -40030,7 +40030,7 @@
         <v>0</v>
       </c>
       <c r="I964" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -41421,7 +41421,7 @@
         <v>3.3</v>
       </c>
       <c r="H998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I998" t="n">
         <v>0</v>
@@ -41544,7 +41544,7 @@
         <v>3.3</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="n">
         <v>0</v>
